--- a/data/negative_signals/Drug - Total occurrences (B-to-X) - Bullous eruptions - all categories.xlsx
+++ b/data/negative_signals/Drug - Total occurrences (B-to-X) - Bullous eruptions - all categories.xlsx
@@ -111,7 +111,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>142812784</t>
+    <t>76350720</t>
   </si>
   <si>
     <t>causes</t>
@@ -123,7 +123,7 @@
     <t>autoantibodies</t>
   </si>
   <si>
-    <t>145209139</t>
+    <t>78841912</t>
   </si>
   <si>
     <t>affects</t>
@@ -135,7 +135,7 @@
     <t>chloroquine</t>
   </si>
   <si>
-    <t>183056201</t>
+    <t>116859320</t>
   </si>
   <si>
     <t>837528</t>
@@ -144,7 +144,7 @@
     <t>captopril</t>
   </si>
   <si>
-    <t>140613064</t>
+    <t>74231788</t>
   </si>
   <si>
     <t>5093961</t>
@@ -153,7 +153,7 @@
     <t>collagenase</t>
   </si>
   <si>
-    <t>124791122</t>
+    <t>58409705</t>
   </si>
   <si>
     <t>inhibits</t>
@@ -165,7 +165,7 @@
     <t>penicillamine</t>
   </si>
   <si>
-    <t>123149999</t>
+    <t>56773882</t>
   </si>
   <si>
     <t>5108168</t>
@@ -174,7 +174,7 @@
     <t>penicillin g</t>
   </si>
   <si>
-    <t>142386444</t>
+    <t>75949843</t>
   </si>
   <si>
     <t>4042224</t>
@@ -183,7 +183,7 @@
     <t>dapsone</t>
   </si>
   <si>
-    <t>180245931</t>
+    <t>114043056</t>
   </si>
   <si>
     <t>treats</t>
@@ -195,7 +195,7 @@
     <t>phenylbutazone</t>
   </si>
   <si>
-    <t>127797772</t>
+    <t>61382531</t>
   </si>
   <si>
     <t>3815705</t>
@@ -204,7 +204,7 @@
     <t>tranexamic acid</t>
   </si>
   <si>
-    <t>160881871</t>
+    <t>94691585</t>
   </si>
   <si>
     <t>4905224</t>
@@ -213,7 +213,7 @@
     <t>aluminum chloride</t>
   </si>
   <si>
-    <t>124432465</t>
+    <t>58031591</t>
   </si>
   <si>
     <t>4028721</t>
@@ -222,7 +222,7 @@
     <t>nalidixic acid</t>
   </si>
   <si>
-    <t>119675720</t>
+    <t>53339440</t>
   </si>
   <si>
     <t>497154</t>
@@ -231,7 +231,7 @@
     <t>tetrazepam</t>
   </si>
   <si>
-    <t>191420296</t>
+    <t>125280756</t>
   </si>
   <si>
     <t>3727551</t>
@@ -240,7 +240,7 @@
     <t>oral form methylprednisolone</t>
   </si>
   <si>
-    <t>180243014</t>
+    <t>114040142</t>
   </si>
   <si>
     <t>4048321</t>
@@ -252,7 +252,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>124432552</t>
+    <t>58031670</t>
   </si>
   <si>
     <t>is location of</t>
@@ -264,7 +264,7 @@
     <t>limb structure</t>
   </si>
   <si>
-    <t>125832970</t>
+    <t>59479264</t>
   </si>
   <si>
     <t>216533</t>
@@ -273,7 +273,7 @@
     <t>head</t>
   </si>
   <si>
-    <t>134168913</t>
+    <t>70409366</t>
   </si>
   <si>
     <t>4035606</t>
@@ -282,7 +282,7 @@
     <t>foot</t>
   </si>
   <si>
-    <t>123482624</t>
+    <t>57099226</t>
   </si>
   <si>
     <t>794148</t>
@@ -291,7 +291,7 @@
     <t>face</t>
   </si>
   <si>
-    <t>125867936</t>
+    <t>59517342</t>
   </si>
   <si>
     <t>4048930</t>
@@ -300,7 +300,7 @@
     <t>lower extremity</t>
   </si>
   <si>
-    <t>187966054</t>
+    <t>121751908</t>
   </si>
   <si>
     <t>3247965</t>
@@ -309,7 +309,7 @@
     <t>entire trunk</t>
   </si>
   <si>
-    <t>145178765</t>
+    <t>78783751</t>
   </si>
   <si>
     <t>379689</t>
@@ -318,7 +318,7 @@
     <t>abdomen</t>
   </si>
   <si>
-    <t>154074222</t>
+    <t>87816211</t>
   </si>
   <si>
     <t>837274</t>
@@ -327,7 +327,7 @@
     <t>leg</t>
   </si>
   <si>
-    <t>120030841</t>
+    <t>53682816</t>
   </si>
   <si>
     <t>2879754</t>
@@ -336,7 +336,7 @@
     <t>entire thigh</t>
   </si>
   <si>
-    <t>169111232</t>
+    <t>102897923</t>
   </si>
   <si>
     <t>58041</t>
@@ -345,7 +345,7 @@
     <t>forearm</t>
   </si>
   <si>
-    <t>174348328</t>
+    <t>108166559</t>
   </si>
   <si>
     <t>400928</t>
@@ -354,7 +354,7 @@
     <t>axilla</t>
   </si>
   <si>
-    <t>188086225</t>
+    <t>121941152</t>
   </si>
   <si>
     <t>271416</t>
@@ -363,7 +363,7 @@
     <t>genitalia</t>
   </si>
   <si>
-    <t>189059151</t>
+    <t>122848718</t>
   </si>
   <si>
     <t>3139025</t>
@@ -372,7 +372,7 @@
     <t>plantar - anatomical location</t>
   </si>
   <si>
-    <t>196946265</t>
+    <t>130743106</t>
   </si>
   <si>
     <t>3766855</t>
@@ -381,7 +381,7 @@
     <t>sole of foot</t>
   </si>
   <si>
-    <t>189061482</t>
+    <t>122851169</t>
   </si>
   <si>
     <t>5127262</t>
@@ -390,7 +390,7 @@
     <t>pain</t>
   </si>
   <si>
-    <t>179706364</t>
+    <t>113483617</t>
   </si>
   <si>
     <t>is a</t>
@@ -402,7 +402,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>193498222</t>
+    <t>127281809</t>
   </si>
   <si>
     <t>4028517</t>
@@ -411,7 +411,7 @@
     <t>kidney failure, chronic</t>
   </si>
   <si>
-    <t>123657506</t>
+    <t>57273052</t>
   </si>
   <si>
     <t>coexists with</t>
@@ -423,7 +423,7 @@
     <t>lupus erythematosus, systemic</t>
   </si>
   <si>
-    <t>134745063</t>
+    <t>68296895</t>
   </si>
   <si>
     <t>5698619</t>
@@ -432,7 +432,7 @@
     <t>autoimmune diseases</t>
   </si>
   <si>
-    <t>151224234</t>
+    <t>84843954</t>
   </si>
   <si>
     <t>5131040</t>
@@ -441,7 +441,7 @@
     <t>pulmonary edema</t>
   </si>
   <si>
-    <t>121833297</t>
+    <t>55291627</t>
   </si>
   <si>
     <t>3762211</t>
@@ -450,7 +450,7 @@
     <t>bulla</t>
   </si>
   <si>
-    <t>203449045</t>
+    <t>137260534</t>
   </si>
   <si>
     <t>is parent of</t>
@@ -462,7 +462,7 @@
     <t>echinococcosis</t>
   </si>
   <si>
-    <t>198988276</t>
+    <t>132797091</t>
   </si>
   <si>
     <t>837644</t>
@@ -471,7 +471,7 @@
     <t>lupus erythematosus</t>
   </si>
   <si>
-    <t>132419822</t>
+    <t>66026027</t>
   </si>
   <si>
     <t>615473</t>
@@ -480,7 +480,7 @@
     <t>prematurity of fetus</t>
   </si>
   <si>
-    <t>169805626</t>
+    <t>103628962</t>
   </si>
   <si>
     <t>396066</t>
@@ -489,7 +489,7 @@
     <t>compartment syndromes</t>
   </si>
   <si>
-    <t>197258530</t>
+    <t>131050434</t>
   </si>
   <si>
     <t>complicates</t>
@@ -501,7 +501,7 @@
     <t>adenovirus infections</t>
   </si>
   <si>
-    <t>135241500</t>
+    <t>68735561</t>
   </si>
   <si>
     <t>3752415</t>
@@ -510,7 +510,7 @@
     <t>psoriasis vulgaris</t>
   </si>
   <si>
-    <t>127009361</t>
+    <t>60580724</t>
   </si>
   <si>
     <t>5232094</t>
@@ -519,7 +519,7 @@
     <t>pseudomonas infections</t>
   </si>
   <si>
-    <t>177156461</t>
+    <t>110982258</t>
   </si>
   <si>
     <t>4409792</t>
@@ -528,7 +528,7 @@
     <t>scabies</t>
   </si>
   <si>
-    <t>154720065</t>
+    <t>88555167</t>
   </si>
   <si>
     <t>3113988</t>
@@ -537,7 +537,7 @@
     <t>hypersensitivity disease</t>
   </si>
   <si>
-    <t>183056067</t>
+    <t>116859123</t>
   </si>
   <si>
     <t>761720</t>
@@ -546,7 +546,7 @@
     <t>syphilis, congenital</t>
   </si>
   <si>
-    <t>129765281</t>
+    <t>63359632</t>
   </si>
   <si>
     <t>occurs in</t>
@@ -558,7 +558,7 @@
     <t>disease of skin and appendages</t>
   </si>
   <si>
-    <t>204608767</t>
+    <t>138413405</t>
   </si>
   <si>
     <t>147583</t>
@@ -567,7 +567,7 @@
     <t>milker's nodes</t>
   </si>
   <si>
-    <t>134980321</t>
+    <t>71155385</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.313149929046631</v>
+        <v>5.313835620880127</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.010745048522949</v>
+        <v>5.013763904571533</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.676830768585205</v>
+        <v>4.692009449005127</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.905072212219238</v>
+        <v>5.908326625823975</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.647524833679199</v>
+        <v>5.6477155685424805</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.512490749359131</v>
+        <v>5.51275110244751</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.341573238372803</v>
+        <v>5.342600345611572</v>
       </c>
       <c r="B7" t="s">
         <v>139</v>
